--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3387450.457991648</v>
+        <v>3384952.726067957</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8169816.958207516</v>
+        <v>8169816.958207515</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>20.65733480351219</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.794564554605881</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>412.9288914861689</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716172</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I2" t="n">
-        <v>118.958190538687</v>
+        <v>118.9581905386865</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241024569</v>
+        <v>0.7530123241016327</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.9260532011781</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U2" t="n">
         <v>251.1557452255192</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261762</v>
+        <v>99.96876284261756</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323668</v>
+        <v>45.66663787323643</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199427</v>
+        <v>21.29900499199383</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156104</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0452553973763</v>
+        <v>195.0452553973762</v>
       </c>
       <c r="U3" t="n">
         <v>225.8578215810165</v>
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9261537524327</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.4149600371265</v>
       </c>
       <c r="S4" t="n">
-        <v>91.16362508236259</v>
+        <v>205.4595917937732</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3958800207157</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>140.2898306708979</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9288914861689</v>
+        <v>12.92889148616885</v>
       </c>
       <c r="H5" t="n">
-        <v>133.2181439903262</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I5" t="n">
-        <v>118.958190538687</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241024569</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>15.28952899304255</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261762</v>
+        <v>99.96876284261756</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323668</v>
+        <v>45.66663787323643</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199427</v>
+        <v>21.29900499199383</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156104</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T6" t="n">
-        <v>195.0452553973763</v>
+        <v>195.0452553973762</v>
       </c>
       <c r="U6" t="n">
         <v>225.8578215810165</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>14.74062321595029</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>53.72819308781271</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>205.8424318677025</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>185.6305880635078</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>139.3630269640595</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994143001</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>78.91051008678096</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>18.50276072357057</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>154.0370966050008</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>36.21070476472222</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>140.2695301648957</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>1.799772605716619</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>154.8443340724367</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1324.153788395283</v>
+        <v>915.270389855276</v>
       </c>
       <c r="C2" t="n">
-        <v>1324.153788395283</v>
+        <v>915.270389855276</v>
       </c>
       <c r="D2" t="n">
-        <v>1324.153788395283</v>
+        <v>915.270389855276</v>
       </c>
       <c r="E2" t="n">
-        <v>1319.310793895681</v>
+        <v>915.270389855276</v>
       </c>
       <c r="F2" t="n">
-        <v>908.3248891060732</v>
+        <v>908.3248891060725</v>
       </c>
       <c r="G2" t="n">
-        <v>491.2249987160036</v>
+        <v>491.224998716003</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8778760174004</v>
+        <v>172.8778760173998</v>
       </c>
       <c r="I2" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002398</v>
+        <v>240.3507333903781</v>
       </c>
       <c r="K2" t="n">
-        <v>153.9986274745297</v>
+        <v>642.3082349403386</v>
       </c>
       <c r="L2" t="n">
-        <v>704.9390792031089</v>
+        <v>1042.40770467237</v>
       </c>
       <c r="M2" t="n">
-        <v>1334.573032084385</v>
+        <v>1227.023259395744</v>
       </c>
       <c r="N2" t="n">
-        <v>1959.763123039498</v>
+        <v>1419.239895182996</v>
       </c>
       <c r="O2" t="n">
-        <v>2493.17409378057</v>
+        <v>1964.401531937493</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.201833992999</v>
+        <v>2392.009993239691</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R2" t="n">
         <v>2635.143761215016</v>
       </c>
       <c r="S2" t="n">
-        <v>2635.143761215016</v>
+        <v>2478.652798385544</v>
       </c>
       <c r="T2" t="n">
-        <v>2635.143761215016</v>
+        <v>2263.799931140764</v>
       </c>
       <c r="U2" t="n">
-        <v>2381.451089270047</v>
+        <v>2010.107259195795</v>
       </c>
       <c r="V2" t="n">
-        <v>2050.388201926477</v>
+        <v>1679.044371852224</v>
       </c>
       <c r="W2" t="n">
-        <v>1697.619546656362</v>
+        <v>1326.27571658211</v>
       </c>
       <c r="X2" t="n">
-        <v>1324.153788395283</v>
+        <v>1326.27571658211</v>
       </c>
       <c r="Y2" t="n">
-        <v>1324.153788395283</v>
+        <v>936.1363846062984</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120978</v>
+        <v>966.4318812120973</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309708</v>
+        <v>791.9788519309703</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697196</v>
+        <v>643.0444422697192</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642641</v>
+        <v>483.8069872642636</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911492</v>
+        <v>337.2724292911487</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640339</v>
+        <v>199.8245529640337</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815764</v>
+        <v>98.84600463815735</v>
       </c>
       <c r="I3" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J3" t="n">
-        <v>170.7774263352076</v>
+        <v>170.7774263352082</v>
       </c>
       <c r="K3" t="n">
-        <v>499.1804835727238</v>
+        <v>499.1804835727255</v>
       </c>
       <c r="L3" t="n">
-        <v>1002.163317769834</v>
+        <v>635.0313759194127</v>
       </c>
       <c r="M3" t="n">
-        <v>1180.051769638051</v>
+        <v>1273.967840900132</v>
       </c>
       <c r="N3" t="n">
-        <v>1435.32098308577</v>
+        <v>1926.354174881874</v>
       </c>
       <c r="O3" t="n">
-        <v>1983.246222291443</v>
+        <v>2191.222737149931</v>
       </c>
       <c r="P3" t="n">
-        <v>2406.001465018976</v>
+        <v>2613.977979877465</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R3" t="n">
         <v>2614.390233267651</v>
@@ -4437,7 +4437,7 @@
         <v>2464.803105373095</v>
       </c>
       <c r="T3" t="n">
-        <v>2267.787695880796</v>
+        <v>2267.787695880795</v>
       </c>
       <c r="U3" t="n">
         <v>2039.648482162597</v>
@@ -4446,13 +4446,13 @@
         <v>1804.496373930854</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.259017202653</v>
+        <v>1550.259017202652</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.40751699712</v>
+        <v>1342.407516997119</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.647218232166</v>
+        <v>1134.647218232165</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>666.2500446047322</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="C4" t="n">
-        <v>666.2500446047322</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="D4" t="n">
-        <v>516.1334051923965</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="E4" t="n">
-        <v>368.2203116100034</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="F4" t="n">
-        <v>221.330364112093</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J4" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919731</v>
+        <v>153.1475318919737</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482319</v>
+        <v>337.1890785482335</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628142</v>
+        <v>541.6242080628167</v>
       </c>
       <c r="N4" t="n">
-        <v>746.6329435543747</v>
+        <v>746.632943554378</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968917072</v>
+        <v>919.9753968917113</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327083</v>
+        <v>1044.779129327088</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.751684421857</v>
+        <v>917.029502566179</v>
       </c>
       <c r="S4" t="n">
-        <v>955.6672146416929</v>
+        <v>709.4945613603475</v>
       </c>
       <c r="T4" t="n">
-        <v>955.6672146416929</v>
+        <v>483.8421572990184</v>
       </c>
       <c r="U4" t="n">
-        <v>955.6672146416929</v>
+        <v>483.8421572990184</v>
       </c>
       <c r="V4" t="n">
-        <v>955.6672146416929</v>
+        <v>342.1352576314448</v>
       </c>
       <c r="W4" t="n">
-        <v>666.2500446047322</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="X4" t="n">
-        <v>666.2500446047322</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="Y4" t="n">
-        <v>666.2500446047322</v>
+        <v>52.7180875944842</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2248.543921150894</v>
+        <v>1504.086665537363</v>
       </c>
       <c r="C5" t="n">
-        <v>1879.581404210483</v>
+        <v>1135.124148596951</v>
       </c>
       <c r="D5" t="n">
-        <v>1521.315705603732</v>
+        <v>776.8584499902006</v>
       </c>
       <c r="E5" t="n">
-        <v>1135.527453005488</v>
+        <v>391.0701973919563</v>
       </c>
       <c r="F5" t="n">
-        <v>724.5415482158803</v>
+        <v>384.1246966427528</v>
       </c>
       <c r="G5" t="n">
-        <v>307.4416578258107</v>
+        <v>371.0652102930873</v>
       </c>
       <c r="H5" t="n">
-        <v>172.8778760174004</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I5" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J5" t="n">
-        <v>240.350733390377</v>
+        <v>72.94508437002509</v>
       </c>
       <c r="K5" t="n">
-        <v>642.3082349403358</v>
+        <v>474.9025859199855</v>
       </c>
       <c r="L5" t="n">
-        <v>1042.407704672381</v>
+        <v>986.426428954624</v>
       </c>
       <c r="M5" t="n">
-        <v>1227.023259395753</v>
+        <v>1171.041983677998</v>
       </c>
       <c r="N5" t="n">
-        <v>1419.239895183002</v>
+        <v>1796.232074633114</v>
       </c>
       <c r="O5" t="n">
-        <v>1964.401531937497</v>
+        <v>1964.401531937493</v>
       </c>
       <c r="P5" t="n">
-        <v>2392.009993239693</v>
+        <v>2392.009993239691</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R5" t="n">
-        <v>2635.143761215016</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.143761215016</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.143761215016</v>
+        <v>2620.460411044369</v>
       </c>
       <c r="U5" t="n">
-        <v>2635.143761215016</v>
+        <v>2620.460411044369</v>
       </c>
       <c r="V5" t="n">
-        <v>2635.143761215016</v>
+        <v>2620.460411044369</v>
       </c>
       <c r="W5" t="n">
-        <v>2635.143761215016</v>
+        <v>2267.691755774254</v>
       </c>
       <c r="X5" t="n">
-        <v>2635.143761215016</v>
+        <v>1894.225997513174</v>
       </c>
       <c r="Y5" t="n">
-        <v>2635.143761215016</v>
+        <v>1504.086665537363</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120983</v>
+        <v>966.4318812120981</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309714</v>
+        <v>791.9788519309711</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697201</v>
+        <v>643.0444422697199</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642646</v>
+        <v>483.8069872642643</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911496</v>
+        <v>337.2724292911493</v>
       </c>
       <c r="G6" t="n">
-        <v>199.824552964034</v>
+        <v>199.8245529640337</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815764</v>
+        <v>98.84600463815735</v>
       </c>
       <c r="I6" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J6" t="n">
-        <v>170.7774263352076</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K6" t="n">
-        <v>499.1804835727238</v>
+        <v>381.1211448320014</v>
       </c>
       <c r="L6" t="n">
-        <v>1002.163317769834</v>
+        <v>884.1039790291131</v>
       </c>
       <c r="M6" t="n">
-        <v>1180.051769638051</v>
+        <v>1061.992430897332</v>
       </c>
       <c r="N6" t="n">
-        <v>1435.32098308577</v>
+        <v>1643.297497944256</v>
       </c>
       <c r="O6" t="n">
-        <v>1983.246222291443</v>
+        <v>2191.222737149931</v>
       </c>
       <c r="P6" t="n">
-        <v>2406.001465018976</v>
+        <v>2613.977979877466</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R6" t="n">
         <v>2614.390233267651</v>
@@ -4680,7 +4680,7 @@
         <v>2039.648482162597</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.496373930855</v>
+        <v>1804.496373930854</v>
       </c>
       <c r="W6" t="n">
         <v>1550.259017202653</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>214.4975534923444</v>
+        <v>221.6542705223911</v>
       </c>
       <c r="C7" t="n">
-        <v>214.4975534923444</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4975534923444</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="E7" t="n">
-        <v>214.4975534923444</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="F7" t="n">
-        <v>67.60760599443401</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J7" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919731</v>
+        <v>153.1475318919737</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482319</v>
+        <v>337.1890785482335</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628142</v>
+        <v>541.6242080628167</v>
       </c>
       <c r="N7" t="n">
-        <v>746.6329435543747</v>
+        <v>746.632943554378</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968917072</v>
+        <v>919.9753968917113</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327083</v>
+        <v>1044.779129327088</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.751684421857</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.751684421857</v>
+        <v>993.4807823129606</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.751684421857</v>
+        <v>993.4807823129606</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.751684421857</v>
+        <v>993.4807823129606</v>
       </c>
       <c r="U7" t="n">
-        <v>758.5992117351918</v>
+        <v>704.3283096262953</v>
       </c>
       <c r="V7" t="n">
-        <v>503.914723529305</v>
+        <v>449.6438214204085</v>
       </c>
       <c r="W7" t="n">
-        <v>214.4975534923444</v>
+        <v>449.6438214204085</v>
       </c>
       <c r="X7" t="n">
-        <v>214.4975534923444</v>
+        <v>221.6542705223911</v>
       </c>
       <c r="Y7" t="n">
-        <v>214.4975534923444</v>
+        <v>221.6542705223911</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1506.396552414163</v>
+        <v>1777.27348276126</v>
       </c>
       <c r="C8" t="n">
-        <v>1137.434035473751</v>
+        <v>1408.310965820849</v>
       </c>
       <c r="D8" t="n">
-        <v>779.1683368670008</v>
+        <v>1050.045267214098</v>
       </c>
       <c r="E8" t="n">
-        <v>393.3800842687565</v>
+        <v>664.2570146158539</v>
       </c>
       <c r="F8" t="n">
-        <v>185.4584359175419</v>
+        <v>657.3115138666504</v>
       </c>
       <c r="G8" t="n">
-        <v>172.4110581943734</v>
+        <v>240.2237321030779</v>
       </c>
       <c r="H8" t="n">
-        <v>172.4110581943734</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I8" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J8" t="n">
-        <v>241.3579866082206</v>
+        <v>241.3579866082205</v>
       </c>
       <c r="K8" t="n">
         <v>644.825099628266</v>
       </c>
       <c r="L8" t="n">
-        <v>1033.218542125548</v>
+        <v>1197.638357874465</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.917954950956</v>
+        <v>1384.337770699873</v>
       </c>
       <c r="N8" t="n">
-        <v>1414.252167842938</v>
+        <v>2011.64543875972</v>
       </c>
       <c r="O8" t="n">
-        <v>1961.413372610015</v>
+        <v>2181.814464076679</v>
       </c>
       <c r="P8" t="n">
-        <v>2390.72841894931</v>
+        <v>2390.728418949309</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.904379724211</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.904379724211</v>
+        <v>2421.104517991921</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.904379724211</v>
+        <v>2167.412814737072</v>
       </c>
       <c r="V8" t="n">
-        <v>2635.904379724211</v>
+        <v>2167.412814737072</v>
       </c>
       <c r="W8" t="n">
-        <v>2283.135724454096</v>
+        <v>2167.412814737072</v>
       </c>
       <c r="X8" t="n">
-        <v>2283.135724454096</v>
+        <v>2167.412814737072</v>
       </c>
       <c r="Y8" t="n">
-        <v>1892.996392478285</v>
+        <v>1777.27348276126</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>199.5389224593631</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416773</v>
+        <v>98.62294460416771</v>
       </c>
       <c r="I9" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J9" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K9" t="n">
-        <v>120.3259072578413</v>
+        <v>120.3259072578412</v>
       </c>
       <c r="L9" t="n">
-        <v>624.6874471239598</v>
+        <v>257.5555052735352</v>
       </c>
       <c r="M9" t="n">
-        <v>1265.232796591064</v>
+        <v>778.5595777597443</v>
       </c>
       <c r="N9" t="n">
-        <v>1917.619130572807</v>
+        <v>1430.945911741486</v>
       </c>
       <c r="O9" t="n">
-        <v>2467.05513932553</v>
+        <v>1980.381920494209</v>
       </c>
       <c r="P9" t="n">
-        <v>2612.326203833537</v>
+        <v>2404.349688975046</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.063145035514</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>666.5739510150303</v>
+        <v>202.8347270068199</v>
       </c>
       <c r="C10" t="n">
-        <v>497.6377680871234</v>
+        <v>202.8347270068199</v>
       </c>
       <c r="D10" t="n">
-        <v>347.5211286747877</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="E10" t="n">
-        <v>199.6080350923946</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="F10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J10" t="n">
-        <v>52.71808759448422</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K10" t="n">
         <v>153.766017190094</v>
@@ -4984,28 +4984,28 @@
         <v>1052.652769053829</v>
       </c>
       <c r="R10" t="n">
-        <v>1052.652769053829</v>
+        <v>922.1748077732316</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.652769053829</v>
+        <v>922.1748077732316</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.652769053829</v>
+        <v>922.1748077732316</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.652769053829</v>
+        <v>633.0226313509113</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.652769053829</v>
+        <v>633.0226313509113</v>
       </c>
       <c r="W10" t="n">
-        <v>1052.652769053829</v>
+        <v>343.6054613139507</v>
       </c>
       <c r="X10" t="n">
-        <v>1052.652769053829</v>
+        <v>343.6054613139507</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.22241584527</v>
+        <v>343.6054613139507</v>
       </c>
     </row>
     <row r="11">
@@ -5024,31 +5024,31 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355936</v>
@@ -5060,28 +5060,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>409.1360811687904</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>904.461687384549</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.840175011101</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5276,28 +5276,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5358,22 +5358,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>409.1360811687895</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845483</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770319</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>634.334587849125</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>484.2179484367892</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>336.3048548543961</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>336.3048548543961</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2041.469518613829</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,22 +6543,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,10 +6686,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908939</v>
@@ -7129,16 +7129,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245705</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>119.2902967703784</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,19 +7634,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075811</v>
@@ -7655,40 +7655,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797189</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D46" t="n">
-        <v>343.0994656851783</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2040.654127232581</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1751.578900576778</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>265.2965862711075</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>368.9308216532274</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8061,22 +8061,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>58.85246329940489</v>
+        <v>459.9808678792245</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>107.9464839862065</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,22 +8213,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>265.2965862711234</v>
+        <v>377.8464582939426</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.839178026546165</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>58.85246329940489</v>
+        <v>388.1816083491054</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,19 +8456,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>251.5805925818474</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>99.17134305363967</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,22 +8535,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>344.9562991228326</v>
       </c>
       <c r="N9" t="n">
-        <v>458.3127195243206</v>
+        <v>458.3127195243204</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>36.9509464451597</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-1.155557474667594e-12</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>147.0213775686983</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>112.4047682534901</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>78.31512318719908</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>146.8157004124957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>62.56111625485153</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>751679.2865730015</v>
+        <v>751679.2865730012</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>751679.2865730015</v>
+        <v>751679.2865730012</v>
       </c>
     </row>
     <row r="4">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778549</v>
+      </c>
+      <c r="C2" t="n">
+        <v>738937.5928778548</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778552</v>
-      </c>
-      <c r="C2" t="n">
-        <v>738937.5928778551</v>
-      </c>
-      <c r="D2" t="n">
-        <v>738937.5928778549</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210052</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.939721005</v>
       </c>
       <c r="I2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.939721005</v>
       </c>
       <c r="J2" t="n">
         <v>726431.9397210055</v>
       </c>
       <c r="K2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="N2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.939721005</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210056</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222398</v>
+        <v>789845.933122243</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.74144847562</v>
+        <v>2553.741448472796</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329919</v>
+        <v>775624.2722329925</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821404</v>
+        <v>172417.1413821401</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663866</v>
+        <v>128024.1174663868</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408961</v>
+        <v>184436.3405408955</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408961</v>
+        <v>184436.3405408956</v>
       </c>
       <c r="D4" t="n">
         <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695013</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695045</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695056</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
+        <v>6287.480531695053</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6287.480531695061</v>
+      </c>
+      <c r="L4" t="n">
         <v>6287.48053169506</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
+        <v>6287.480531695075</v>
+      </c>
+      <c r="N4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="L4" t="n">
-        <v>6287.480531695082</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
+        <v>6287.480531695061</v>
+      </c>
+      <c r="P4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6287.480531695049</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6287.480531695033</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538439</v>
+        <v>86566.12012538445</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538439</v>
+        <v>86566.12012538445</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.12555917782</v>
+        <v>86631.1255591778</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-321910.8009106651</v>
+        <v>-321910.8009106681</v>
       </c>
       <c r="C6" t="n">
-        <v>467935.1322115746</v>
+        <v>467935.1322115748</v>
       </c>
       <c r="D6" t="n">
-        <v>465820.140404199</v>
+        <v>465820.140404202</v>
       </c>
       <c r="E6" t="n">
-        <v>-156602.3428675886</v>
+        <v>-156637.0807930249</v>
       </c>
       <c r="F6" t="n">
-        <v>619021.929365403</v>
+        <v>618987.1914399676</v>
       </c>
       <c r="G6" t="n">
-        <v>619021.9293654036</v>
+        <v>618987.1914399675</v>
       </c>
       <c r="H6" t="n">
-        <v>619021.9293654034</v>
+        <v>618987.1914399673</v>
       </c>
       <c r="I6" t="n">
-        <v>619021.929365403</v>
+        <v>618987.1914399671</v>
       </c>
       <c r="J6" t="n">
-        <v>446604.787983263</v>
+        <v>446570.0500578275</v>
       </c>
       <c r="K6" t="n">
-        <v>619021.929365403</v>
+        <v>618987.1914399675</v>
       </c>
       <c r="L6" t="n">
-        <v>619021.9293654034</v>
+        <v>618987.1914399678</v>
       </c>
       <c r="M6" t="n">
-        <v>490997.8118990167</v>
+        <v>490963.0739735807</v>
       </c>
       <c r="N6" t="n">
-        <v>619021.9293654031</v>
+        <v>618987.1914399675</v>
       </c>
       <c r="O6" t="n">
-        <v>619021.9293654029</v>
+        <v>618987.1914399675</v>
       </c>
       <c r="P6" t="n">
-        <v>619021.929365403</v>
+        <v>618987.1914399678</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053388</v>
+        <v>590.4941997053421</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053388</v>
+        <v>590.4941997053421</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-3.016897076984856e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053388</v>
+        <v>590.4941997053421</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632726251</v>
+        <v>2.981900632722954</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036085</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685955</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310528</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685954</v>
+        <v>513.732193168596</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685955</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>362.0765068599684</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>377.1358055176559</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011784</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723319</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
         <v>152.75990484659</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842212</v>
+        <v>123.428264884221</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063312</v>
+        <v>18.07600977063269</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371268</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>114.2959667114108</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3958800207158</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2609479597986</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>111.8478126529301</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>181.945507481291</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.9581905386865</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.7530123241016327</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011784</v>
+        <v>154.9260532011781</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723319</v>
+        <v>197.4148095792893</v>
       </c>
       <c r="U5" t="n">
         <v>251.1557452255192</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>152.1855305364824</v>
+        <v>166.9261537524327</v>
       </c>
       <c r="H7" t="n">
         <v>152.75990484659</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842212</v>
+        <v>123.428264884221</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063312</v>
+        <v>18.07600977063269</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371268</v>
+        <v>75.68676694931381</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937733</v>
+        <v>205.4595917937732</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3958800207158</v>
+        <v>223.3958800207157</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>201.033613874009</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>129.4102960117078</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>40.46895321787784</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28065,19 +28065,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-5.217533543695846e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966184</v>
+        <v>2.373846028966198</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064414994</v>
+        <v>24.31115064415008</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171892</v>
+        <v>91.51769903171942</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009689</v>
+        <v>201.47721440097</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071075</v>
+        <v>301.9621168071092</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160814</v>
+        <v>374.6107072160835</v>
       </c>
       <c r="M2" t="n">
-        <v>416.8265915337088</v>
+        <v>416.8265915337112</v>
       </c>
       <c r="N2" t="n">
-        <v>423.571281563509</v>
+        <v>423.5712815635114</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129765</v>
+        <v>399.9663501129788</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728738</v>
+        <v>341.3620262728757</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605222</v>
+        <v>256.3486653605236</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170472</v>
+        <v>149.116105617048</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506698</v>
+        <v>54.09401638506728</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179948</v>
+        <v>10.39151099179954</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172947</v>
+        <v>0.1899076823172958</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.2701195993662</v>
+        <v>1.270119599366208</v>
       </c>
       <c r="H3" t="n">
-        <v>12.26668139387883</v>
+        <v>12.2666813938789</v>
       </c>
       <c r="I3" t="n">
-        <v>43.7299949781784</v>
+        <v>43.72999497817865</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401199</v>
+        <v>119.9984486401205</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976553</v>
+        <v>205.0964617976564</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623849</v>
+        <v>275.7775033623865</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394096</v>
+        <v>321.8193388394114</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351593</v>
+        <v>330.3369391351612</v>
       </c>
       <c r="O3" t="n">
-        <v>302.193762749203</v>
+        <v>302.1937627492047</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789721</v>
+        <v>242.5371364789735</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190961</v>
+        <v>162.129652719097</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064887</v>
+        <v>78.85882916064931</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822744</v>
+        <v>23.59191448822757</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445341</v>
+        <v>5.11947329744537</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0835604999583027</v>
+        <v>0.08356049995830317</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026021</v>
+        <v>1.064825606026027</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849537</v>
+        <v>9.46726766084959</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303707</v>
+        <v>32.02221004303725</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034603965</v>
+        <v>75.28317034604008</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546595</v>
+        <v>123.7133749546602</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177231</v>
+        <v>158.310526917724</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609698</v>
+        <v>166.9162538609707</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203274</v>
+        <v>162.9473584203284</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953871</v>
+        <v>150.5082592953879</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324561</v>
+        <v>128.7858169324568</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550616</v>
+        <v>89.16462415550666</v>
       </c>
       <c r="R4" t="n">
-        <v>47.8784313400427</v>
+        <v>47.87843134004297</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319892</v>
+        <v>18.55700624319902</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565723</v>
+        <v>4.549709407565749</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232847</v>
+        <v>0.05808139669232879</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966184</v>
+        <v>2.373846028966198</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064414994</v>
+        <v>24.31115064415008</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171892</v>
+        <v>91.51769903171942</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009689</v>
+        <v>201.47721440097</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071075</v>
+        <v>301.9621168071092</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160814</v>
+        <v>374.6107072160835</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915337088</v>
+        <v>416.8265915337112</v>
       </c>
       <c r="N5" t="n">
-        <v>423.571281563509</v>
+        <v>423.5712815635114</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129765</v>
+        <v>399.9663501129788</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728738</v>
+        <v>341.3620262728757</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605222</v>
+        <v>256.3486653605236</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170472</v>
+        <v>149.116105617048</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506698</v>
+        <v>54.09401638506728</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179948</v>
+        <v>10.39151099179954</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172947</v>
+        <v>0.1899076823172958</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.2701195993662</v>
+        <v>1.270119599366208</v>
       </c>
       <c r="H6" t="n">
-        <v>12.26668139387883</v>
+        <v>12.2666813938789</v>
       </c>
       <c r="I6" t="n">
-        <v>43.7299949781784</v>
+        <v>43.72999497817865</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401199</v>
+        <v>119.9984486401205</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976553</v>
+        <v>205.0964617976564</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623849</v>
+        <v>275.7775033623865</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394096</v>
+        <v>321.8193388394114</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351593</v>
+        <v>330.3369391351612</v>
       </c>
       <c r="O6" t="n">
-        <v>302.193762749203</v>
+        <v>302.1937627492047</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789721</v>
+        <v>242.5371364789735</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190961</v>
+        <v>162.129652719097</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064887</v>
+        <v>78.85882916064931</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822744</v>
+        <v>23.59191448822757</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445341</v>
+        <v>5.11947329744537</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0835604999583027</v>
+        <v>0.08356049995830317</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026021</v>
+        <v>1.064825606026027</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849537</v>
+        <v>9.46726766084959</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303707</v>
+        <v>32.02221004303725</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034603965</v>
+        <v>75.28317034604008</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546595</v>
+        <v>123.7133749546602</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177231</v>
+        <v>158.310526917724</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609698</v>
+        <v>166.9162538609707</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203274</v>
+        <v>162.9473584203284</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953871</v>
+        <v>150.5082592953879</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324561</v>
+        <v>128.7858169324568</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550616</v>
+        <v>89.16462415550666</v>
       </c>
       <c r="R7" t="n">
-        <v>47.8784313400427</v>
+        <v>47.87843134004297</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319892</v>
+        <v>18.55700624319902</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565723</v>
+        <v>4.549709407565749</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232847</v>
+        <v>0.05808139669232879</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>456.3459017226606</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>436.4492970000073</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>456.3459017226597</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L21" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>324.5433647340731</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,28 +33026,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,25 +33263,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>491.597732526532</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>209.7242506524599</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>461.1007071927452</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33737,28 +33737,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>268.6704608606964</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338202</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>285.8867128925984</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428259</v>
+        <v>189.5279250463575</v>
       </c>
       <c r="K2" t="n">
-        <v>81.87226576212697</v>
+        <v>406.0176783332934</v>
       </c>
       <c r="L2" t="n">
-        <v>556.5055067965446</v>
+        <v>404.1408785172038</v>
       </c>
       <c r="M2" t="n">
-        <v>635.9938917992686</v>
+        <v>186.4803583064384</v>
       </c>
       <c r="N2" t="n">
-        <v>631.5051423789023</v>
+        <v>194.1582179669205</v>
       </c>
       <c r="O2" t="n">
-        <v>538.7989603445172</v>
+        <v>550.6683199540374</v>
       </c>
       <c r="P2" t="n">
-        <v>110.1290305176042</v>
+        <v>431.9277386890888</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.04297548607272</v>
+        <v>246.3579661459788</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>119.251857313862</v>
+        <v>119.2518573138627</v>
       </c>
       <c r="K3" t="n">
-        <v>331.7202598358749</v>
+        <v>331.720259835876</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859699</v>
+        <v>137.2231235825123</v>
       </c>
       <c r="M3" t="n">
-        <v>179.6853049173913</v>
+        <v>645.390368667393</v>
       </c>
       <c r="N3" t="n">
-        <v>257.8476903512309</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="O3" t="n">
-        <v>553.459837581488</v>
+        <v>267.5440022909668</v>
       </c>
       <c r="P3" t="n">
-        <v>427.025497704579</v>
+        <v>427.0254977045804</v>
       </c>
       <c r="Q3" t="n">
-        <v>232.2251663689237</v>
+        <v>22.14787863307546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.4438831287766</v>
+        <v>101.4438831287773</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780393</v>
+        <v>185.9005521780402</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228103</v>
+        <v>206.5001308228113</v>
       </c>
       <c r="N4" t="n">
-        <v>207.079530799556</v>
+        <v>207.0795307995569</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094267</v>
+        <v>175.0933872094276</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0643761973496</v>
+        <v>126.0643761973503</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903811776</v>
+        <v>3.002580903812273</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>189.5279250463564</v>
+        <v>20.43130987428373</v>
       </c>
       <c r="K5" t="n">
-        <v>406.0176783332917</v>
+        <v>406.0176783332934</v>
       </c>
       <c r="L5" t="n">
-        <v>404.1408785172176</v>
+        <v>516.6907505400389</v>
       </c>
       <c r="M5" t="n">
-        <v>186.4803583064361</v>
+        <v>186.4803583064384</v>
       </c>
       <c r="N5" t="n">
-        <v>194.1582179669181</v>
+        <v>631.5051423789046</v>
       </c>
       <c r="O5" t="n">
-        <v>550.6683199540352</v>
+        <v>169.868138691292</v>
       </c>
       <c r="P5" t="n">
-        <v>431.9277386890869</v>
+        <v>431.9277386890888</v>
       </c>
       <c r="Q5" t="n">
-        <v>246.3579661459774</v>
+        <v>246.3579661459788</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.251857313862</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>331.7202598358749</v>
+        <v>331.720259835876</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859699</v>
+        <v>508.0634688859715</v>
       </c>
       <c r="M6" t="n">
-        <v>179.6853049173913</v>
+        <v>179.6853049173931</v>
       </c>
       <c r="N6" t="n">
-        <v>257.8476903512309</v>
+        <v>587.1768354009333</v>
       </c>
       <c r="O6" t="n">
-        <v>553.459837581488</v>
+        <v>553.4598375814898</v>
       </c>
       <c r="P6" t="n">
-        <v>427.025497704579</v>
+        <v>427.0254977045804</v>
       </c>
       <c r="Q6" t="n">
-        <v>232.2251663689237</v>
+        <v>22.14787863307546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.4438831287766</v>
+        <v>101.4438831287773</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780393</v>
+        <v>185.9005521780402</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228103</v>
+        <v>206.5001308228113</v>
       </c>
       <c r="N7" t="n">
-        <v>207.079530799556</v>
+        <v>207.0795307995569</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094267</v>
+        <v>175.0933872094276</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0643761973496</v>
+        <v>126.0643761973503</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903811776</v>
+        <v>3.002580903812273</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35176,19 +35176,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>392.3166085831132</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>211.0241968410402</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35255,22 +35255,22 @@
         <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>526.2667398850597</v>
       </c>
       <c r="N9" t="n">
-        <v>658.9760949310527</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>146.7384489979868</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>318.5044627483016</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>302.474889585677</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>318.5044627483007</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35899,7 +35899,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L21" t="n">
-        <v>351.9532034556938</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>182.4093308120547</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36613,10 +36613,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394599</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
